--- a/solution-step3.xlsx
+++ b/solution-step3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FatemaK/Desktop/year3/CMIII/Numerical Algorithms/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{25A6FC57-AE2A-994C-811F-2B84449BF241}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4989FB25-D194-4346-8866-84EA2A179C3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1760" windowWidth="23840" windowHeight="13000" activeTab="6"/>
+    <workbookView xWindow="1620" yWindow="1260" windowWidth="23840" windowHeight="13000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delta-1-d-vs-t" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -586,8 +586,657 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>delta-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'delta-1-d-vs-t'!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6001000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5000900000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4000900000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3000900000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2000800000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1000700000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0000700000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9000600000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8000399999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6999300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5999099999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.49989E-9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3998599999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2998300000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1997900000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0997399999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9996800000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8996000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.79951E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6994E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5992500000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4990700000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3988300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2985299999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.19814E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.09762E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9969300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8960000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7947100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6929100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5903199999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4865199999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3807600000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2717099999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.15675E-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.03012E-9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.7604699999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.1679100000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.1095400000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.32957E-9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.83913E-9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.3480700000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.8569099999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3657199999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8745299999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.3828299999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8916400000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.40044E-9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.9092499999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.4180500000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.9268499999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.4356600000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.9444599999999993E-9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.4532699999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.9620700000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.4708800000000007E-9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.9796799999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.04885E-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.09973E-8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1506099999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.20149E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2523700000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3032499999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.35413E-8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4050100000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4558899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.50677E-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5576500000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6085300000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6594099999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7102899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7611699999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8120599999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8629399999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.91382E-8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9647000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0155800000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0664600000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.1173399999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1682199999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.2191E-8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2699800000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.3208600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3717399999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.4226199999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.4734999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.52438E-8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5752600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.6261400000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6770199999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7278999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.77878E-8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.82966E-8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.8805400000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.9314200000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.9823100000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.0331899999999998E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EE24-0F4E-90B4-649E3F288D2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>delta-2</c:v>
           </c:tx>
@@ -605,12 +1254,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'delta-5-d-vs-t'!$A$1:$A$101</c:f>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -1231,655 +1880,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE24-0F4E-90B4-649E3F288D2F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>delta-1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'delta-5-d-vs-t'!$A$1:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9200</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9300</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9400</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9700</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9800</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9900</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'delta-1-d-vs-t'!$B$1:$B$101</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9E-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8E-9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6999999999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6001000000000003E-9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5000900000000003E-9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4000900000000003E-9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3000900000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2000800000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1000700000000003E-9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0000700000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.9000600000000003E-9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8000399999999996E-9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.6999300000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5999099999999998E-9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.49989E-9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.3998599999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.2998300000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.1997900000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.0997399999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9996800000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.8996000000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.79951E-9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.6994E-9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.5992500000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.4990700000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.3988300000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.2985299999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.19814E-9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.09762E-9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.9969300000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.8960000000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.7947100000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.6929100000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.5903199999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.4865199999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.3807600000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.2717099999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.15675E-9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.03012E-9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.7604699999999996E-10</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.1679100000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.1095400000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.32957E-9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.83913E-9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.3480700000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.8569099999999998E-9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.3657199999999998E-9</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.8745299999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.3828299999999998E-9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.8916400000000003E-9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.40044E-9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.9092499999999996E-9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.4180500000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.9268499999999999E-9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.4356600000000004E-9</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7.9444599999999993E-9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.4532699999999997E-9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.9620700000000003E-9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.4708800000000007E-9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.9796799999999996E-9</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.04885E-8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.09973E-8</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.1506099999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.20149E-8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.2523700000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.3032499999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.35413E-8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.4050100000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.4558899999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.50677E-8</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.5576500000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.6085300000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.6594099999999998E-8</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.7102899999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.7611699999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.8120599999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.8629399999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.91382E-8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.9647000000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0155800000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0664600000000002E-8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.1173399999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1682199999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.2191E-8</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.2699800000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.3208600000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.3717399999999998E-8</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.4226199999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.4734999999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.52438E-8</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.5752600000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.6261400000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.6770199999999998E-8</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.7278999999999999E-8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.77878E-8</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.82966E-8</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.8805400000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.9314200000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.9823100000000001E-8</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>3.0331899999999998E-8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EE24-0F4E-90B4-649E3F288D2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1903,12 +1903,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'delta-5-d-vs-t'!$A$1:$A$101</c:f>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -2552,12 +2552,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'delta-5-d-vs-t'!$A$1:$A$101</c:f>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -3201,12 +3201,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'delta-5-d-vs-t'!$A$1:$A$101</c:f>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -3827,6 +3827,655 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-EE24-0F4E-90B4-649E3F288D2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>delta-6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'delta-6-d-vs-t'!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4999899999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3999899999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2999899999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1999799999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999699999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9999699999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8999599999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.79994E-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6999300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5999099999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.49989E-9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3998599999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2998300000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1997900000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0997399999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9996800000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8996000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.79951E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6994E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5992500000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4990700000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3988300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2985299999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.19814E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.09762E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9969300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8960000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7947100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6929E-9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5903199999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4865100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3807600000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2717000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.15673E-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.03008E-9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.7595199999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.1626799999999997E-10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.1162999999999995E-10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.2190500000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0658100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.18843E-9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.30144E-9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.40943E-9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.51458E-9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6180100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.72036E-9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8220200000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.92321E-9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0240799999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.12473E-9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2252199999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3255999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4258900000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.52612E-9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6262999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7264499999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.8265700000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.9266700000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0267500000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1268200000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2268799999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.3269299999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.4269699999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.5270099999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6270399999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.72707E-9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.8270899999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.9271200000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0271400000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.12716E-9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.22717E-9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.3271899999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.4272099999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.5272199999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.6272400000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.7272500000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.8272600000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.9272700000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.02728E-9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.1272999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.2273099999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.3273199999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.4273299999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.5273399999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.6273499999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.7273600000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.8273700000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.9273800000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.0273800000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.1273900000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.2274000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.3274100000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.4274200000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.5274300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.62744E-9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.72745E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D90-374A-8470-41993D6F3DB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4072,12 +4721,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'delta-5-d-vs-t'!$A$1:$A$101</c:f>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -4721,12 +5370,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'delta-5-d-vs-t'!$A$1:$A$101</c:f>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -5370,12 +6019,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'delta-5-d-vs-t'!$A$1:$A$101</c:f>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -5996,6 +6645,655 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-EE24-0F4E-90B4-649E3F288D2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>delta-6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'delta-6-d-vs-t'!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'delta-6-d-vs-t'!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4999899999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3999899999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2999899999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1999799999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999699999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9999699999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8999599999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.79994E-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6999300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5999099999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.49989E-9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3998599999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2998300000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1997900000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0997399999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9996800000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8996000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.79951E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6994E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5992500000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4990700000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3988300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2985299999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.19814E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.09762E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9969300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8960000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7947100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6929E-9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5903199999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4865100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3807600000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2717000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.15673E-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.03008E-9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.7595199999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.1626799999999997E-10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.1162999999999995E-10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.2190500000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0658100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.18843E-9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.30144E-9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.40943E-9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.51458E-9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6180100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.72036E-9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8220200000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.92321E-9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0240799999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.12473E-9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2252199999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3255999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4258900000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.52612E-9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6262999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7264499999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.8265700000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.9266700000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0267500000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1268200000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2268799999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.3269299999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.4269699999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.5270099999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6270399999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.72707E-9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.8270899999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.9271200000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0271400000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.12716E-9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.22717E-9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.3271899999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.4272099999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.5272199999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.6272400000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.7272500000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.8272600000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.9272700000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.02728E-9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.1272999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.2273099999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.3273199999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.4273299999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.5273399999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.6273499999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.7273600000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.8273700000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.9273800000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.0273800000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.1273900000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.2274000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.3274100000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.4274200000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.5274300000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.62744E-9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.72745E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E4C-B747-B26E-47DA99235BB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7317,16 +8615,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7353,16 +8651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411692</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>532342</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7686,7 +8984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8507,7 +9805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9328,7 +10626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10149,7 +11447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10970,7 +12268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11791,7 +13089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12612,11 +13910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
